--- a/ofc/estimates/new track bheterinary ukhutaar sadak/estimate_anjan.xlsx
+++ b/ofc/estimates/new track bheterinary ukhutaar sadak/estimate_anjan.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\081_082\ofc\ofc\estimates\new track bheterinary ukhutaar sadak\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New folder\081-082\ofc\ofc\estimates\new track bheterinary ukhutaar sadak\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="estimate" sheetId="18" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">V!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">WCR!$1:$12</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t>sqm</t>
-  </si>
-  <si>
-    <t>Supply and Fixing Isulating roof with mixture of foam and colour CGI  &amp; Colour Sheet with Boarderclip  as per specified colour and of approved quality as per instruction of site engineer and  all work complete</t>
   </si>
   <si>
     <t>Earthwork Excavation in Cutting., Roadway Excavation in all types of Soil by Mechanical  Means ., Road way Excavation in  all types of soil as per Drawing and technical specifications  including  removal of stumps and other deleterious matter, all lifts and lead as per Drawing and instruction of the Engineer.</t>
@@ -226,12 +223,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,13 +335,8 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -357,14 +349,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -396,12 +382,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -409,7 +408,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -429,14 +428,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -445,7 +444,7 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -470,7 +469,7 @@
     <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -502,7 +501,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -510,7 +509,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -525,7 +524,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -541,7 +540,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -549,27 +578,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -591,7 +605,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -606,40 +620,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1191,136 +1177,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD80"/>
+  <dimension ref="A1:AD78"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-    </row>
-    <row r="2" spans="1:30" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+    </row>
+    <row r="2" spans="1:30" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-    </row>
-    <row r="3" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="70" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+    </row>
+    <row r="3" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-    </row>
-    <row r="4" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="70" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+    </row>
+    <row r="4" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-    </row>
-    <row r="5" spans="1:30" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="71" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+    </row>
+    <row r="5" spans="1:30" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-    </row>
-    <row r="6" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+    </row>
+    <row r="6" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="67" t="s">
+      <c r="H6" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-    </row>
-    <row r="7" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="63" t="s">
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+    </row>
+    <row r="7" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-    </row>
-    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+    </row>
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -1355,12 +1341,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>1</v>
       </c>
-      <c r="B9" s="86" t="s">
-        <v>45</v>
+      <c r="B9" s="63" t="s">
+        <v>44</v>
       </c>
       <c r="C9" s="36"/>
       <c r="D9" s="38"/>
@@ -1379,13 +1365,13 @@
       <c r="R9" s="25"/>
       <c r="S9" s="25"/>
     </row>
-    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="36">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D10" s="38">
         <v>200</v>
@@ -1394,23 +1380,23 @@
         <v>4</v>
       </c>
       <c r="F10" s="38">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="G10" s="39">
-        <f t="shared" ref="G9:G10" si="0">PRODUCT(C10:F10)</f>
-        <v>80</v>
+        <f t="shared" ref="G10" si="0">PRODUCT(C10:F10)</f>
+        <v>720</v>
       </c>
       <c r="H10" s="40"/>
       <c r="I10" s="40"/>
       <c r="J10" s="40"/>
       <c r="K10" s="21"/>
-      <c r="M10" s="85"/>
+      <c r="M10" s="62"/>
       <c r="N10" s="49"/>
       <c r="O10" s="49"/>
       <c r="P10" s="49"/>
       <c r="Q10" s="49"/>
-      <c r="R10" s="85"/>
-      <c r="S10" s="85"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="62"/>
       <c r="T10" s="48"/>
       <c r="U10" s="48"/>
       <c r="V10" s="48"/>
@@ -1423,7 +1409,7 @@
       <c r="AC10" s="48"/>
       <c r="AD10" s="48"/>
     </row>
-    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="37" t="s">
         <v>41</v>
@@ -1434,7 +1420,7 @@
       <c r="F11" s="38"/>
       <c r="G11" s="34">
         <f>SUM(G10)</f>
-        <v>80</v>
+        <v>720</v>
       </c>
       <c r="H11" s="40" t="s">
         <v>43</v>
@@ -1444,16 +1430,16 @@
       </c>
       <c r="J11" s="44">
         <f>G11*I11</f>
-        <v>5170.3999999999996</v>
+        <v>46533.599999999999</v>
       </c>
       <c r="K11" s="21"/>
-      <c r="M11" s="85"/>
+      <c r="M11" s="62"/>
       <c r="N11" s="49"/>
       <c r="O11" s="49"/>
       <c r="P11" s="49"/>
       <c r="Q11" s="49"/>
-      <c r="R11" s="85"/>
-      <c r="S11" s="85"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="62"/>
       <c r="T11" s="48"/>
       <c r="U11" s="48"/>
       <c r="V11" s="48"/>
@@ -1466,7 +1452,7 @@
       <c r="AC11" s="48"/>
       <c r="AD11" s="48"/>
     </row>
-    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="37" t="s">
         <v>40</v>
@@ -1480,7 +1466,7 @@
       <c r="I12" s="40"/>
       <c r="J12" s="44">
         <f>0.13*G11*19284/360</f>
-        <v>557.09333333333336</v>
+        <v>5013.84</v>
       </c>
       <c r="K12" s="21"/>
       <c r="M12" s="25"/>
@@ -1491,7 +1477,7 @@
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
     </row>
-    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="37"/>
       <c r="C13" s="42"/>
@@ -1504,7 +1490,7 @@
       <c r="J13" s="44"/>
       <c r="K13" s="36"/>
     </row>
-    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>2</v>
       </c>
@@ -1540,7 +1526,7 @@
       <c r="R14" s="25"/>
       <c r="S14" s="25"/>
     </row>
-    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="24"/>
       <c r="C15" s="19"/>
@@ -1560,7 +1546,7 @@
       <c r="R15" s="25"/>
       <c r="S15" s="25"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="45" t="s">
         <v>17</v>
@@ -1574,11 +1560,11 @@
       <c r="I16" s="41"/>
       <c r="J16" s="41">
         <f>SUM(J9:J14)</f>
-        <v>6227.4933333333329</v>
+        <v>52047.44</v>
       </c>
       <c r="K16" s="36"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="57"/>
       <c r="B17" s="60"/>
       <c r="C17" s="61"/>
@@ -1591,19 +1577,17 @@
       <c r="J17" s="59"/>
       <c r="K17" s="56"/>
     </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="49"/>
       <c r="B18" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="62">
+      <c r="C18" s="74">
         <f>J16</f>
-        <v>6227.4933333333329</v>
-      </c>
-      <c r="D18" s="62"/>
-      <c r="E18" s="39">
-        <v>100</v>
-      </c>
+        <v>52047.44</v>
+      </c>
+      <c r="D18" s="74"/>
+      <c r="E18" s="51"/>
       <c r="F18" s="50"/>
       <c r="G18" s="51"/>
       <c r="H18" s="50"/>
@@ -1611,16 +1595,16 @@
       <c r="J18" s="53"/>
       <c r="K18" s="54"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55"/>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="65">
-        <v>500000</v>
-      </c>
-      <c r="D19" s="65"/>
-      <c r="E19" s="39"/>
+      <c r="C19" s="77">
+        <v>40000</v>
+      </c>
+      <c r="D19" s="77"/>
+      <c r="E19" s="67"/>
       <c r="F19" s="48"/>
       <c r="G19" s="47"/>
       <c r="H19" s="47"/>
@@ -1628,19 +1612,19 @@
       <c r="J19" s="47"/>
       <c r="K19" s="48"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="55"/>
       <c r="B20" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="65">
+      <c r="C20" s="78">
         <f>C19-C22-C23</f>
-        <v>475000</v>
-      </c>
-      <c r="D20" s="65"/>
+        <v>38000</v>
+      </c>
+      <c r="D20" s="78"/>
       <c r="E20" s="39">
         <f>C20/C18*100</f>
-        <v>7627.4670172268361</v>
+        <v>73.010315204743975</v>
       </c>
       <c r="F20" s="48"/>
       <c r="G20" s="47"/>
@@ -1649,19 +1633,19 @@
       <c r="J20" s="47"/>
       <c r="K20" s="48"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55"/>
       <c r="B21" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="62">
+      <c r="C21" s="74">
         <f>C18-C20</f>
-        <v>-468772.50666666665</v>
-      </c>
-      <c r="D21" s="62"/>
+        <v>14047.440000000002</v>
+      </c>
+      <c r="D21" s="74"/>
       <c r="E21" s="39">
         <f>100-E20</f>
-        <v>-7527.4670172268361</v>
+        <v>26.989684795256025</v>
       </c>
       <c r="F21" s="48"/>
       <c r="G21" s="47"/>
@@ -1670,16 +1654,16 @@
       <c r="J21" s="47"/>
       <c r="K21" s="48"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="55"/>
       <c r="B22" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="62">
+      <c r="C22" s="74">
         <f>C19*0.03</f>
-        <v>15000</v>
-      </c>
-      <c r="D22" s="62"/>
+        <v>1200</v>
+      </c>
+      <c r="D22" s="74"/>
       <c r="E22" s="39">
         <v>3</v>
       </c>
@@ -1690,16 +1674,16 @@
       <c r="J22" s="47"/>
       <c r="K22" s="48"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="55"/>
       <c r="B23" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="62">
+      <c r="C23" s="74">
         <f>C19*0.02</f>
-        <v>10000</v>
-      </c>
-      <c r="D23" s="62"/>
+        <v>800</v>
+      </c>
+      <c r="D23" s="74"/>
       <c r="E23" s="39">
         <v>2</v>
       </c>
@@ -1710,7 +1694,7 @@
       <c r="J23" s="47"/>
       <c r="K23" s="48"/>
     </row>
-    <row r="24" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
       <c r="B24" s="56"/>
       <c r="C24" s="56"/>
@@ -1723,77 +1707,62 @@
       <c r="J24" s="56"/>
       <c r="K24" s="56"/>
     </row>
-    <row r="25" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="84"/>
-    </row>
-    <row r="30" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="33" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="35" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="37" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="38" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="39" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="40" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="43" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="44" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="45" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="46" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="47" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="49" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
+  <mergeCells count="15">
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="A7:F7"/>
@@ -1802,6 +1771,13 @@
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
@@ -1818,110 +1794,110 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-    </row>
-    <row r="2" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A2" s="82" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+    </row>
+    <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="70" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="70" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-    </row>
-    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="83" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-    </row>
-    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+    </row>
+    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="79" t="e">
+      <c r="C6" s="86">
         <f>F18</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D6" s="80"/>
+        <v>52047.44</v>
+      </c>
+      <c r="D6" s="87"/>
       <c r="E6" s="9"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -1929,90 +1905,90 @@
         <v>20</v>
       </c>
       <c r="I6" s="8"/>
-      <c r="J6" s="79" t="e">
+      <c r="J6" s="86">
         <f>I18</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K6" s="80"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>45495.768891083135</v>
+      </c>
+      <c r="K6" s="87"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="I7" s="75" t="s">
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="I7" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="66" t="e">
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="68" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="I8" s="76" t="s">
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="I8" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="77" t="e">
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="84" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="I9" s="76" t="s">
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="I9" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="72" t="s">
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="78" t="s">
+      <c r="D11" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78" t="s">
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="72" t="s">
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="73" t="s">
+      <c r="K11" s="80" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="72"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="79"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="11" t="s">
         <v>26</v>
       </c>
@@ -2031,75 +2007,75 @@
       <c r="I12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="72"/>
-      <c r="K12" s="73"/>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B13" s="32" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C13" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D13" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E13" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F13" s="12" t="e">
+      <c r="J12" s="79"/>
+      <c r="K12" s="80"/>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="27">
+        <f>estimate!A9</f>
+        <v>1</v>
+      </c>
+      <c r="B13" s="32" t="str">
+        <f>estimate!B9</f>
+        <v>Earthwork Excavation in Cutting., Roadway Excavation in all types of Soil by Mechanical  Means ., Road way Excavation in  all types of soil as per Drawing and technical specifications  including  removal of stumps and other deleterious matter, all lifts and lead as per Drawing and instruction of the Engineer.</v>
+      </c>
+      <c r="C13" s="12" t="str">
+        <f>estimate!H11</f>
+        <v>sqm</v>
+      </c>
+      <c r="D13" s="12">
+        <f>estimate!G11</f>
+        <v>720</v>
+      </c>
+      <c r="E13" s="12">
+        <f>estimate!I11</f>
+        <v>64.63</v>
+      </c>
+      <c r="F13" s="12">
         <f>D13*E13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G13" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H13" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I13" s="12" t="e">
+        <v>46533.599999999999</v>
+      </c>
+      <c r="G13" s="12">
+        <f>V!G32</f>
+        <v>635.47197691252677</v>
+      </c>
+      <c r="H13" s="12">
+        <f>V!I32</f>
+        <v>64.63</v>
+      </c>
+      <c r="I13" s="12">
         <f>G13*H13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J13" s="28" t="e">
+        <v>41070.553867856601</v>
+      </c>
+      <c r="J13" s="28">
         <f>I13-F13</f>
-        <v>#REF!</v>
+        <v>-5463.0461321433977</v>
       </c>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
-      <c r="B14" s="33" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="B14" s="33" t="str">
+        <f>estimate!B12</f>
+        <v>VAT calculation</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="F14" s="12">
+        <f>estimate!J12</f>
+        <v>5013.84</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="I14" s="12">
+        <f>V!J33</f>
+        <v>4425.2150232265321</v>
       </c>
       <c r="J14" s="28"/>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
       <c r="C15" s="12"/>
@@ -2112,50 +2088,50 @@
       <c r="J15" s="28"/>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B16" s="31" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C16" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D16" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E16" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F16" s="12" t="e">
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="27">
+        <f>estimate!A14</f>
+        <v>2</v>
+      </c>
+      <c r="B16" s="31" t="str">
+        <f>estimate!B14</f>
+        <v>Information board (सुचना पाटि)</v>
+      </c>
+      <c r="C16" s="12" t="str">
+        <f>estimate!H14</f>
+        <v>no.</v>
+      </c>
+      <c r="D16" s="12">
+        <f>estimate!G14</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="12">
+        <f>estimate!I14</f>
+        <v>500</v>
+      </c>
+      <c r="F16" s="12">
         <f>D16*E16</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G16" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H16" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I16" s="12" t="e">
+        <v>500</v>
+      </c>
+      <c r="G16" s="12">
+        <f>V!G35</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="12">
+        <f>V!I35</f>
+        <v>500</v>
+      </c>
+      <c r="I16" s="12">
         <f>G16*H16</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J16" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="J16" s="28">
         <f>I16-F16</f>
-        <v>#REF!</v>
+        <v>-500</v>
       </c>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
       <c r="B17" s="29"/>
       <c r="C17" s="12"/>
@@ -2168,7 +2144,7 @@
       <c r="J17" s="28"/>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
         <v>16</v>
@@ -2176,19 +2152,19 @@
       <c r="C18" s="6"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="7" t="e">
+      <c r="F18" s="7">
         <f>SUM(F13:F16)</f>
-        <v>#REF!</v>
+        <v>52047.44</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="7" t="e">
+      <c r="I18" s="7">
         <f>SUM(I13:I16)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J18" s="13" t="e">
+        <v>45495.768891083135</v>
+      </c>
+      <c r="J18" s="13">
         <f>I18-F18</f>
-        <v>#REF!</v>
+        <v>-6551.6711089168675</v>
       </c>
       <c r="K18" s="5"/>
     </row>
@@ -2231,134 +2207,134 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-    </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+    </row>
+    <row r="2" spans="1:21" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-    </row>
-    <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="70" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+    </row>
+    <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-    </row>
-    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="70" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+    </row>
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-    </row>
-    <row r="5" spans="1:21" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="71" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+    </row>
+    <row r="5" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+    </row>
+    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+    </row>
+    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-    </row>
-    <row r="6" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-    </row>
-    <row r="7" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-    </row>
-    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+    </row>
+    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -2393,12 +2369,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>1</v>
       </c>
-      <c r="B9" s="86" t="s">
-        <v>45</v>
+      <c r="B9" s="63" t="s">
+        <v>44</v>
       </c>
       <c r="C9" s="36"/>
       <c r="D9" s="38"/>
@@ -2412,17 +2388,17 @@
       <c r="M9">
         <v>0</v>
       </c>
-      <c r="N9" s="87">
+      <c r="N9" s="64">
         <v>4</v>
       </c>
       <c r="O9">
         <v>0.15</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="36">
         <v>0.5</v>
@@ -2440,7 +2416,7 @@
         <v>0.82499999999999996</v>
       </c>
       <c r="G10" s="39">
-        <f t="shared" ref="G10:G32" si="0">PRODUCT(C10:F10)</f>
+        <f t="shared" ref="G10:G31" si="0">PRODUCT(C10:F10)</f>
         <v>12.993749999999999</v>
       </c>
       <c r="H10" s="40"/>
@@ -2450,7 +2426,7 @@
       <c r="M10" s="48">
         <v>7</v>
       </c>
-      <c r="N10" s="88">
+      <c r="N10" s="65">
         <v>5</v>
       </c>
       <c r="O10" s="48">
@@ -2463,7 +2439,7 @@
       <c r="T10" s="48"/>
       <c r="U10" s="48"/>
     </row>
-    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="37"/>
       <c r="C11" s="36">
@@ -2492,7 +2468,7 @@
       <c r="M11" s="48">
         <v>7</v>
       </c>
-      <c r="N11" s="88">
+      <c r="N11" s="65">
         <v>6</v>
       </c>
       <c r="O11" s="48">
@@ -2505,7 +2481,7 @@
       <c r="T11" s="48"/>
       <c r="U11" s="48"/>
     </row>
-    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="37"/>
       <c r="C12" s="36">
@@ -2534,7 +2510,7 @@
       <c r="M12" s="48">
         <v>7</v>
       </c>
-      <c r="N12" s="88">
+      <c r="N12" s="65">
         <f>12/3.281</f>
         <v>3.6574215178299299</v>
       </c>
@@ -2548,7 +2524,7 @@
       <c r="T12" s="48"/>
       <c r="U12" s="48"/>
     </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="37"/>
       <c r="C13" s="36">
@@ -2577,7 +2553,7 @@
       <c r="M13" s="48">
         <v>7</v>
       </c>
-      <c r="N13" s="88">
+      <c r="N13" s="65">
         <f>12/3.281</f>
         <v>3.6574215178299299</v>
       </c>
@@ -2591,7 +2567,7 @@
       <c r="T13" s="48"/>
       <c r="U13" s="48"/>
     </row>
-    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="37"/>
       <c r="C14" s="36">
@@ -2620,7 +2596,7 @@
       <c r="M14" s="48">
         <v>7</v>
       </c>
-      <c r="N14" s="88">
+      <c r="N14" s="65">
         <f>15/3.281</f>
         <v>4.5717768972874122</v>
       </c>
@@ -2634,7 +2610,7 @@
       <c r="T14" s="48"/>
       <c r="U14" s="48"/>
     </row>
-    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="37"/>
       <c r="C15" s="36">
@@ -2663,7 +2639,7 @@
       <c r="M15" s="48">
         <v>7</v>
       </c>
-      <c r="N15" s="88">
+      <c r="N15" s="65">
         <f t="shared" ref="N15:N30" si="4">15/3.281</f>
         <v>4.5717768972874122</v>
       </c>
@@ -2677,7 +2653,7 @@
       <c r="T15" s="48"/>
       <c r="U15" s="48"/>
     </row>
-    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="37"/>
       <c r="C16" s="36">
@@ -2706,7 +2682,7 @@
       <c r="M16" s="48">
         <v>7</v>
       </c>
-      <c r="N16" s="88">
+      <c r="N16" s="65">
         <f t="shared" si="4"/>
         <v>4.5717768972874122</v>
       </c>
@@ -2720,7 +2696,7 @@
       <c r="T16" s="48"/>
       <c r="U16" s="48"/>
     </row>
-    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="37"/>
       <c r="C17" s="36">
@@ -2749,7 +2725,7 @@
       <c r="M17" s="48">
         <v>7</v>
       </c>
-      <c r="N17" s="88">
+      <c r="N17" s="65">
         <f t="shared" si="4"/>
         <v>4.5717768972874122</v>
       </c>
@@ -2763,7 +2739,7 @@
       <c r="T17" s="48"/>
       <c r="U17" s="48"/>
     </row>
-    <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="37"/>
       <c r="C18" s="36">
@@ -2792,7 +2768,7 @@
       <c r="M18" s="48">
         <v>7</v>
       </c>
-      <c r="N18" s="88">
+      <c r="N18" s="65">
         <f t="shared" si="4"/>
         <v>4.5717768972874122</v>
       </c>
@@ -2806,7 +2782,7 @@
       <c r="T18" s="48"/>
       <c r="U18" s="48"/>
     </row>
-    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="37"/>
       <c r="C19" s="36">
@@ -2835,7 +2811,7 @@
       <c r="M19" s="48">
         <v>7</v>
       </c>
-      <c r="N19" s="88">
+      <c r="N19" s="65">
         <f t="shared" si="4"/>
         <v>4.5717768972874122</v>
       </c>
@@ -2849,7 +2825,7 @@
       <c r="T19" s="48"/>
       <c r="U19" s="48"/>
     </row>
-    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20" s="37"/>
       <c r="C20" s="36">
@@ -2878,7 +2854,7 @@
       <c r="M20" s="48">
         <v>7</v>
       </c>
-      <c r="N20" s="88">
+      <c r="N20" s="65">
         <f t="shared" si="4"/>
         <v>4.5717768972874122</v>
       </c>
@@ -2892,7 +2868,7 @@
       <c r="T20" s="48"/>
       <c r="U20" s="48"/>
     </row>
-    <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
       <c r="B21" s="37"/>
       <c r="C21" s="36">
@@ -2921,7 +2897,7 @@
       <c r="M21" s="48">
         <v>7</v>
       </c>
-      <c r="N21" s="88">
+      <c r="N21" s="65">
         <f t="shared" si="4"/>
         <v>4.5717768972874122</v>
       </c>
@@ -2935,7 +2911,7 @@
       <c r="T21" s="48"/>
       <c r="U21" s="48"/>
     </row>
-    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
       <c r="B22" s="37"/>
       <c r="C22" s="36">
@@ -2964,7 +2940,7 @@
       <c r="M22" s="48">
         <v>7</v>
       </c>
-      <c r="N22" s="88">
+      <c r="N22" s="65">
         <f t="shared" si="4"/>
         <v>4.5717768972874122</v>
       </c>
@@ -2978,7 +2954,7 @@
       <c r="T22" s="48"/>
       <c r="U22" s="48"/>
     </row>
-    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="37"/>
       <c r="C23" s="36">
@@ -3007,7 +2983,7 @@
       <c r="M23" s="48">
         <v>7</v>
       </c>
-      <c r="N23" s="88">
+      <c r="N23" s="65">
         <f t="shared" si="4"/>
         <v>4.5717768972874122</v>
       </c>
@@ -3021,7 +2997,7 @@
       <c r="T23" s="48"/>
       <c r="U23" s="48"/>
     </row>
-    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="37"/>
       <c r="C24" s="36">
@@ -3050,7 +3026,7 @@
       <c r="M24" s="48">
         <v>7</v>
       </c>
-      <c r="N24" s="88">
+      <c r="N24" s="65">
         <f t="shared" si="4"/>
         <v>4.5717768972874122</v>
       </c>
@@ -3064,7 +3040,7 @@
       <c r="T24" s="48"/>
       <c r="U24" s="48"/>
     </row>
-    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="37"/>
       <c r="C25" s="36">
@@ -3093,7 +3069,7 @@
       <c r="M25" s="48">
         <v>7</v>
       </c>
-      <c r="N25" s="88">
+      <c r="N25" s="65">
         <f t="shared" si="4"/>
         <v>4.5717768972874122</v>
       </c>
@@ -3107,7 +3083,7 @@
       <c r="T25" s="48"/>
       <c r="U25" s="48"/>
     </row>
-    <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26" s="37"/>
       <c r="C26" s="36">
@@ -3119,7 +3095,7 @@
       </c>
       <c r="E26" s="38">
         <f t="shared" si="2"/>
-        <v>4.5717768972874122</v>
+        <v>5.3337397135019806</v>
       </c>
       <c r="F26" s="38">
         <f t="shared" si="3"/>
@@ -3127,7 +3103,7 @@
       </c>
       <c r="G26" s="39">
         <f t="shared" si="0"/>
-        <v>32.002438281011884</v>
+        <v>37.336177994513861</v>
       </c>
       <c r="H26" s="40"/>
       <c r="I26" s="40"/>
@@ -3136,9 +3112,9 @@
       <c r="M26" s="48">
         <v>7</v>
       </c>
-      <c r="N26" s="88">
-        <f t="shared" si="4"/>
-        <v>4.5717768972874122</v>
+      <c r="N26" s="65">
+        <f>20/3.281</f>
+        <v>6.0957025297165499</v>
       </c>
       <c r="O26" s="48">
         <v>2</v>
@@ -3150,7 +3126,7 @@
       <c r="T26" s="48"/>
       <c r="U26" s="48"/>
     </row>
-    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="37"/>
       <c r="C27" s="36">
@@ -3162,7 +3138,7 @@
       </c>
       <c r="E27" s="38">
         <f t="shared" si="2"/>
-        <v>4.5717768972874122</v>
+        <v>6.0957025297165499</v>
       </c>
       <c r="F27" s="38">
         <f t="shared" si="3"/>
@@ -3170,7 +3146,7 @@
       </c>
       <c r="G27" s="39">
         <f t="shared" si="0"/>
-        <v>32.002438281011884</v>
+        <v>42.669917708015852</v>
       </c>
       <c r="H27" s="40"/>
       <c r="I27" s="40"/>
@@ -3179,9 +3155,9 @@
       <c r="M27" s="1">
         <v>7</v>
       </c>
-      <c r="N27" s="88">
-        <f t="shared" si="4"/>
-        <v>4.5717768972874122</v>
+      <c r="N27" s="65">
+        <f>20/3.281</f>
+        <v>6.0957025297165499</v>
       </c>
       <c r="O27" s="48">
         <v>2</v>
@@ -3193,7 +3169,7 @@
       <c r="T27" s="48"/>
       <c r="U27" s="48"/>
     </row>
-    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
       <c r="B28" s="37"/>
       <c r="C28" s="36">
@@ -3205,7 +3181,7 @@
       </c>
       <c r="E28" s="38">
         <f t="shared" si="2"/>
-        <v>4.5717768972874122</v>
+        <v>5.3337397135019806</v>
       </c>
       <c r="F28" s="38">
         <f t="shared" si="3"/>
@@ -3213,7 +3189,7 @@
       </c>
       <c r="G28" s="39">
         <f t="shared" si="0"/>
-        <v>32.002438281011884</v>
+        <v>37.336177994513861</v>
       </c>
       <c r="H28" s="40"/>
       <c r="I28" s="40"/>
@@ -3222,7 +3198,7 @@
       <c r="M28" s="48">
         <v>7</v>
       </c>
-      <c r="N28" s="88">
+      <c r="N28" s="65">
         <f t="shared" si="4"/>
         <v>4.5717768972874122</v>
       </c>
@@ -3236,7 +3212,7 @@
       <c r="T28" s="48"/>
       <c r="U28" s="48"/>
     </row>
-    <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
       <c r="B29" s="37"/>
       <c r="C29" s="36">
@@ -3265,7 +3241,7 @@
       <c r="M29" s="48">
         <v>7</v>
       </c>
-      <c r="N29" s="88">
+      <c r="N29" s="65">
         <f t="shared" si="4"/>
         <v>4.5717768972874122</v>
       </c>
@@ -3279,7 +3255,7 @@
       <c r="T29" s="48"/>
       <c r="U29" s="48"/>
     </row>
-    <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="37"/>
       <c r="C30" s="36">
@@ -3308,7 +3284,7 @@
       <c r="M30" s="48">
         <v>7</v>
       </c>
-      <c r="N30" s="88">
+      <c r="N30" s="65">
         <f t="shared" si="4"/>
         <v>4.5717768972874122</v>
       </c>
@@ -3322,10 +3298,10 @@
       <c r="T30" s="48"/>
       <c r="U30" s="48"/>
     </row>
-    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
       <c r="B31" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" s="36">
         <v>0.5</v>
@@ -3349,7 +3325,7 @@
       <c r="J31" s="40"/>
       <c r="K31" s="21"/>
       <c r="M31" s="48"/>
-      <c r="N31" s="88"/>
+      <c r="N31" s="65"/>
       <c r="O31" s="48"/>
       <c r="P31" s="48"/>
       <c r="Q31" s="48"/>
@@ -3358,7 +3334,7 @@
       <c r="T31" s="48"/>
       <c r="U31" s="48"/>
     </row>
-    <row r="32" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
       <c r="B32" s="37" t="s">
         <v>41</v>
@@ -3369,7 +3345,7 @@
       <c r="F32" s="38"/>
       <c r="G32" s="34">
         <f>SUM(G10:G31)</f>
-        <v>614.13701805851883</v>
+        <v>635.47197691252677</v>
       </c>
       <c r="H32" s="40" t="s">
         <v>43</v>
@@ -3379,7 +3355,7 @@
       </c>
       <c r="J32" s="44">
         <f>G32*I32</f>
-        <v>39691.675477122073</v>
+        <v>41070.553867856601</v>
       </c>
       <c r="K32" s="21"/>
       <c r="N32" s="48"/>
@@ -3391,7 +3367,7 @@
       <c r="T32" s="48"/>
       <c r="U32" s="48"/>
     </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
       <c r="B33" s="37" t="s">
         <v>40</v>
@@ -3405,11 +3381,11 @@
       <c r="I33" s="40"/>
       <c r="J33" s="44">
         <f>0.13*G32*19284/360</f>
-        <v>4276.6454814201725</v>
+        <v>4425.2150232265321</v>
       </c>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="37"/>
       <c r="C34" s="42"/>
@@ -3422,7 +3398,7 @@
       <c r="J34" s="44"/>
       <c r="K34" s="36"/>
     </row>
-    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18">
         <v>2</v>
       </c>
@@ -3430,14 +3406,14 @@
         <v>30</v>
       </c>
       <c r="C35" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" s="20"/>
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
       <c r="G35" s="34">
         <f t="shared" ref="G35" si="5">PRODUCT(C35:F35)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="22" t="s">
         <v>31</v>
@@ -3447,11 +3423,11 @@
       </c>
       <c r="J35" s="34">
         <f>G35*I35</f>
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
       <c r="B36" s="24"/>
       <c r="C36" s="19"/>
@@ -3464,7 +3440,7 @@
       <c r="J36" s="41"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="45" t="s">
         <v>17</v>
@@ -3478,11 +3454,11 @@
       <c r="I37" s="41"/>
       <c r="J37" s="41">
         <f>SUM(J9:J35)</f>
-        <v>44468.320958542245</v>
+        <v>45495.768891083135</v>
       </c>
       <c r="K37" s="36"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="57"/>
       <c r="B38" s="60"/>
       <c r="C38" s="61"/>
@@ -3495,19 +3471,17 @@
       <c r="J38" s="59"/>
       <c r="K38" s="56"/>
     </row>
-    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="49"/>
       <c r="B39" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" s="62">
+        <v>49</v>
+      </c>
+      <c r="C39" s="74">
         <f>J37</f>
-        <v>44468.320958542245</v>
-      </c>
-      <c r="D39" s="62"/>
-      <c r="E39" s="39">
-        <v>100</v>
-      </c>
+        <v>45495.768891083135</v>
+      </c>
+      <c r="D39" s="74"/>
+      <c r="E39" s="51"/>
       <c r="F39" s="50"/>
       <c r="G39" s="51"/>
       <c r="H39" s="50"/>
@@ -3515,16 +3489,16 @@
       <c r="J39" s="53"/>
       <c r="K39" s="54"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="55"/>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="65">
+      <c r="C40" s="77">
         <v>40000</v>
       </c>
-      <c r="D40" s="65"/>
-      <c r="E40" s="39"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="67"/>
       <c r="F40" s="48"/>
       <c r="G40" s="47"/>
       <c r="H40" s="47"/>
@@ -3532,19 +3506,19 @@
       <c r="J40" s="47"/>
       <c r="K40" s="48"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="55"/>
       <c r="B41" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="65">
+      <c r="C41" s="78">
         <f>C40-C43-C44</f>
         <v>38000</v>
       </c>
-      <c r="D41" s="65"/>
+      <c r="D41" s="78"/>
       <c r="E41" s="39">
         <f>C41/C39*100</f>
-        <v>85.454092218654594</v>
+        <v>83.524250553874566</v>
       </c>
       <c r="F41" s="48"/>
       <c r="G41" s="47"/>
@@ -3553,19 +3527,19 @@
       <c r="J41" s="47"/>
       <c r="K41" s="48"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="55"/>
       <c r="B42" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="62">
+      <c r="C42" s="74">
         <f>C39-C41</f>
-        <v>6468.3209585422446</v>
-      </c>
-      <c r="D42" s="62"/>
+        <v>7495.7688910831348</v>
+      </c>
+      <c r="D42" s="74"/>
       <c r="E42" s="39">
         <f>100-E41</f>
-        <v>14.545907781345406</v>
+        <v>16.475749446125434</v>
       </c>
       <c r="F42" s="48"/>
       <c r="G42" s="47"/>
@@ -3574,16 +3548,16 @@
       <c r="J42" s="47"/>
       <c r="K42" s="48"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="55"/>
       <c r="B43" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="62">
+      <c r="C43" s="74">
         <f>C40*0.03</f>
         <v>1200</v>
       </c>
-      <c r="D43" s="62"/>
+      <c r="D43" s="74"/>
       <c r="E43" s="39">
         <v>3</v>
       </c>
@@ -3594,16 +3568,16 @@
       <c r="J43" s="47"/>
       <c r="K43" s="48"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="55"/>
       <c r="B44" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="62">
+      <c r="C44" s="74">
         <f>C40*0.02</f>
         <v>800</v>
       </c>
-      <c r="D44" s="62"/>
+      <c r="D44" s="74"/>
       <c r="E44" s="39">
         <v>2</v>
       </c>
@@ -3614,7 +3588,7 @@
       <c r="J44" s="47"/>
       <c r="K44" s="48"/>
     </row>
-    <row r="45" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="56"/>
       <c r="B45" s="56"/>
       <c r="C45" s="56"/>
@@ -3627,55 +3601,55 @@
       <c r="J45" s="56"/>
       <c r="K45" s="56"/>
     </row>
-    <row r="46" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="49" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="C43:D43"/>
@@ -3686,13 +3660,13 @@
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C42:D42"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>

--- a/ofc/estimates/new track bheterinary ukhutaar sadak/estimate_anjan.xlsx
+++ b/ofc/estimates/new track bheterinary ukhutaar sadak/estimate_anjan.xlsx
@@ -553,24 +553,6 @@
     <xf numFmtId="2" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -584,6 +566,39 @@
     <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -603,21 +618,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1198,113 +1198,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="2" spans="1:30" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
     </row>
     <row r="3" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
     </row>
     <row r="5" spans="1:30" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
     </row>
     <row r="6" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="69" t="s">
+      <c r="H6" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
     </row>
     <row r="7" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="76" t="s">
+      <c r="H7" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
     </row>
     <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -1582,11 +1582,11 @@
       <c r="B18" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="74">
+      <c r="C18" s="68">
         <f>J16</f>
         <v>52047.44</v>
       </c>
-      <c r="D18" s="74"/>
+      <c r="D18" s="68"/>
       <c r="E18" s="51"/>
       <c r="F18" s="50"/>
       <c r="G18" s="51"/>
@@ -1600,10 +1600,10 @@
       <c r="B19" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="77">
+      <c r="C19" s="71">
         <v>40000</v>
       </c>
-      <c r="D19" s="77"/>
+      <c r="D19" s="71"/>
       <c r="E19" s="67"/>
       <c r="F19" s="48"/>
       <c r="G19" s="47"/>
@@ -1617,11 +1617,11 @@
       <c r="B20" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="78">
+      <c r="C20" s="72">
         <f>C19-C22-C23</f>
         <v>38000</v>
       </c>
-      <c r="D20" s="78"/>
+      <c r="D20" s="72"/>
       <c r="E20" s="39">
         <f>C20/C18*100</f>
         <v>73.010315204743975</v>
@@ -1638,11 +1638,11 @@
       <c r="B21" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="74">
+      <c r="C21" s="68">
         <f>C18-C20</f>
         <v>14047.440000000002</v>
       </c>
-      <c r="D21" s="74"/>
+      <c r="D21" s="68"/>
       <c r="E21" s="39">
         <f>100-E20</f>
         <v>26.989684795256025</v>
@@ -1659,11 +1659,11 @@
       <c r="B22" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="74">
+      <c r="C22" s="68">
         <f>C19*0.03</f>
         <v>1200</v>
       </c>
-      <c r="D22" s="74"/>
+      <c r="D22" s="68"/>
       <c r="E22" s="39">
         <v>3</v>
       </c>
@@ -1679,11 +1679,11 @@
       <c r="B23" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="74">
+      <c r="C23" s="68">
         <f>C19*0.02</f>
         <v>800</v>
       </c>
-      <c r="D23" s="74"/>
+      <c r="D23" s="68"/>
       <c r="E23" s="39">
         <v>2</v>
       </c>
@@ -1763,6 +1763,13 @@
     <row r="78" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="A7:F7"/>
@@ -1771,13 +1778,6 @@
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
@@ -1814,90 +1814,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
     </row>
     <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
     </row>
     <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="86">
+      <c r="C6" s="79">
         <f>F18</f>
         <v>52047.44</v>
       </c>
-      <c r="D6" s="87"/>
+      <c r="D6" s="80"/>
       <c r="E6" s="9"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -1905,11 +1905,11 @@
         <v>20</v>
       </c>
       <c r="I6" s="8"/>
-      <c r="J6" s="86">
+      <c r="J6" s="79">
         <f>I18</f>
         <v>45495.768891083135</v>
       </c>
-      <c r="K6" s="87"/>
+      <c r="K6" s="80"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
@@ -1918,77 +1918,77 @@
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="I7" s="82" t="s">
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="I7" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="68" t="e">
+      <c r="A8" s="73" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="I8" s="83" t="s">
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="I8" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="84" t="e">
+      <c r="A9" s="89" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="I9" s="83" t="s">
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="I9" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="79" t="s">
+      <c r="C11" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="85" t="s">
+      <c r="D11" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85" t="s">
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="79" t="s">
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="80" t="s">
+      <c r="K11" s="85" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="79"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
+      <c r="A12" s="84"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
       <c r="D12" s="11" t="s">
         <v>26</v>
       </c>
@@ -2007,8 +2007,8 @@
       <c r="I12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="79"/>
-      <c r="K12" s="80"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="85"/>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
@@ -2170,13 +2170,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="A8:F8"/>
@@ -2190,6 +2183,13 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2208,7 +2208,7 @@
   <dimension ref="A1:U94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2226,113 +2226,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="2" spans="1:21" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
     </row>
     <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
     </row>
     <row r="5" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
     </row>
     <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="69" t="s">
+      <c r="H6" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="76" t="s">
+      <c r="H7" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
     </row>
     <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -2416,7 +2416,7 @@
         <v>0.82499999999999996</v>
       </c>
       <c r="G10" s="39">
-        <f t="shared" ref="G10:G31" si="0">PRODUCT(C10:F10)</f>
+        <f>PRODUCT(C10:F10)</f>
         <v>12.993749999999999</v>
       </c>
       <c r="H10" s="40"/>
@@ -2446,19 +2446,19 @@
         <v>0.5</v>
       </c>
       <c r="D11" s="38">
-        <f t="shared" ref="D11:D30" si="1">M11</f>
+        <f t="shared" ref="D11:D30" si="0">M11</f>
         <v>7</v>
       </c>
       <c r="E11" s="38">
-        <f t="shared" ref="E11:E30" si="2">(N10+N11)/2</f>
+        <f t="shared" ref="E11:E30" si="1">(N10+N11)/2</f>
         <v>5.5</v>
       </c>
       <c r="F11" s="38">
-        <f t="shared" ref="F11:F30" si="3">(O10+O11)/2</f>
+        <f t="shared" ref="F11:F30" si="2">(O10+O11)/2</f>
         <v>1.85</v>
       </c>
       <c r="G11" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G11:G31" si="3">PRODUCT(C11:F11)</f>
         <v>35.612500000000004</v>
       </c>
       <c r="H11" s="40"/>
@@ -2488,19 +2488,19 @@
         <v>0.5</v>
       </c>
       <c r="D12" s="38">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E12" s="38">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="E12" s="38">
+        <v>4.8287107589149647</v>
+      </c>
+      <c r="F12" s="38">
         <f t="shared" si="2"/>
-        <v>4.8287107589149647</v>
-      </c>
-      <c r="F12" s="38">
+        <v>1.85</v>
+      </c>
+      <c r="G12" s="39">
         <f t="shared" si="3"/>
-        <v>1.85</v>
-      </c>
-      <c r="G12" s="39">
-        <f t="shared" si="0"/>
         <v>31.265902163974395</v>
       </c>
       <c r="H12" s="40"/>
@@ -2531,19 +2531,19 @@
         <v>0.5</v>
       </c>
       <c r="D13" s="38">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E13" s="38">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="E13" s="38">
+        <v>3.6574215178299299</v>
+      </c>
+      <c r="F13" s="38">
         <f t="shared" si="2"/>
-        <v>3.6574215178299299</v>
-      </c>
-      <c r="F13" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="G13" s="39">
         <f t="shared" si="3"/>
-        <v>1.5</v>
-      </c>
-      <c r="G13" s="39">
-        <f t="shared" si="0"/>
         <v>19.201462968607132</v>
       </c>
       <c r="H13" s="40"/>
@@ -2574,19 +2574,19 @@
         <v>0.5</v>
       </c>
       <c r="D14" s="38">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E14" s="38">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="E14" s="38">
+        <v>4.1145992075586708</v>
+      </c>
+      <c r="F14" s="38">
         <f t="shared" si="2"/>
-        <v>4.1145992075586708</v>
-      </c>
-      <c r="F14" s="38">
+        <v>2</v>
+      </c>
+      <c r="G14" s="39">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="G14" s="39">
-        <f t="shared" si="0"/>
         <v>28.802194452910697</v>
       </c>
       <c r="H14" s="40"/>
@@ -2617,19 +2617,19 @@
         <v>0.5</v>
       </c>
       <c r="D15" s="38">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E15" s="38">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="E15" s="38">
+        <v>4.5717768972874122</v>
+      </c>
+      <c r="F15" s="38">
         <f t="shared" si="2"/>
-        <v>4.5717768972874122</v>
-      </c>
-      <c r="F15" s="38">
+        <v>2.25</v>
+      </c>
+      <c r="G15" s="39">
         <f t="shared" si="3"/>
-        <v>2.25</v>
-      </c>
-      <c r="G15" s="39">
-        <f t="shared" si="0"/>
         <v>36.002743066138372</v>
       </c>
       <c r="H15" s="40"/>
@@ -2660,19 +2660,19 @@
         <v>0.5</v>
       </c>
       <c r="D16" s="38">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E16" s="38">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="E16" s="38">
+        <v>4.5717768972874122</v>
+      </c>
+      <c r="F16" s="38">
         <f t="shared" si="2"/>
-        <v>4.5717768972874122</v>
-      </c>
-      <c r="F16" s="38">
+        <v>2</v>
+      </c>
+      <c r="G16" s="39">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="G16" s="39">
-        <f t="shared" si="0"/>
         <v>32.002438281011884</v>
       </c>
       <c r="H16" s="40"/>
@@ -2703,19 +2703,19 @@
         <v>0.5</v>
       </c>
       <c r="D17" s="38">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E17" s="38">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="E17" s="38">
+        <v>4.5717768972874122</v>
+      </c>
+      <c r="F17" s="38">
         <f t="shared" si="2"/>
-        <v>4.5717768972874122</v>
-      </c>
-      <c r="F17" s="38">
+        <v>2</v>
+      </c>
+      <c r="G17" s="39">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="G17" s="39">
-        <f t="shared" si="0"/>
         <v>32.002438281011884</v>
       </c>
       <c r="H17" s="40"/>
@@ -2746,19 +2746,19 @@
         <v>0.5</v>
       </c>
       <c r="D18" s="38">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E18" s="38">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="E18" s="38">
+        <v>4.5717768972874122</v>
+      </c>
+      <c r="F18" s="38">
         <f t="shared" si="2"/>
-        <v>4.5717768972874122</v>
-      </c>
-      <c r="F18" s="38">
+        <v>2</v>
+      </c>
+      <c r="G18" s="39">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="G18" s="39">
-        <f t="shared" si="0"/>
         <v>32.002438281011884</v>
       </c>
       <c r="H18" s="40"/>
@@ -2789,19 +2789,19 @@
         <v>0.5</v>
       </c>
       <c r="D19" s="38">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E19" s="38">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="E19" s="38">
+        <v>4.5717768972874122</v>
+      </c>
+      <c r="F19" s="38">
         <f t="shared" si="2"/>
-        <v>4.5717768972874122</v>
-      </c>
-      <c r="F19" s="38">
+        <v>2</v>
+      </c>
+      <c r="G19" s="39">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="G19" s="39">
-        <f t="shared" si="0"/>
         <v>32.002438281011884</v>
       </c>
       <c r="H19" s="40"/>
@@ -2832,19 +2832,19 @@
         <v>0.5</v>
       </c>
       <c r="D20" s="38">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E20" s="38">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="E20" s="38">
+        <v>4.5717768972874122</v>
+      </c>
+      <c r="F20" s="38">
         <f t="shared" si="2"/>
-        <v>4.5717768972874122</v>
-      </c>
-      <c r="F20" s="38">
+        <v>2</v>
+      </c>
+      <c r="G20" s="39">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="G20" s="39">
-        <f t="shared" si="0"/>
         <v>32.002438281011884</v>
       </c>
       <c r="H20" s="40"/>
@@ -2875,19 +2875,19 @@
         <v>0.5</v>
       </c>
       <c r="D21" s="38">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E21" s="38">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="E21" s="38">
+        <v>4.5717768972874122</v>
+      </c>
+      <c r="F21" s="38">
         <f t="shared" si="2"/>
-        <v>4.5717768972874122</v>
-      </c>
-      <c r="F21" s="38">
+        <v>2</v>
+      </c>
+      <c r="G21" s="39">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="G21" s="39">
-        <f t="shared" si="0"/>
         <v>32.002438281011884</v>
       </c>
       <c r="H21" s="40"/>
@@ -2918,19 +2918,19 @@
         <v>0.5</v>
       </c>
       <c r="D22" s="38">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E22" s="38">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="E22" s="38">
+        <v>4.5717768972874122</v>
+      </c>
+      <c r="F22" s="38">
         <f t="shared" si="2"/>
-        <v>4.5717768972874122</v>
-      </c>
-      <c r="F22" s="38">
+        <v>2</v>
+      </c>
+      <c r="G22" s="39">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="G22" s="39">
-        <f t="shared" si="0"/>
         <v>32.002438281011884</v>
       </c>
       <c r="H22" s="40"/>
@@ -2961,19 +2961,19 @@
         <v>0.5</v>
       </c>
       <c r="D23" s="38">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E23" s="38">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="E23" s="38">
+        <v>4.5717768972874122</v>
+      </c>
+      <c r="F23" s="38">
         <f t="shared" si="2"/>
-        <v>4.5717768972874122</v>
-      </c>
-      <c r="F23" s="38">
+        <v>2</v>
+      </c>
+      <c r="G23" s="39">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="G23" s="39">
-        <f t="shared" si="0"/>
         <v>32.002438281011884</v>
       </c>
       <c r="H23" s="40"/>
@@ -3004,19 +3004,19 @@
         <v>0.5</v>
       </c>
       <c r="D24" s="38">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E24" s="38">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="E24" s="38">
+        <v>4.5717768972874122</v>
+      </c>
+      <c r="F24" s="38">
         <f t="shared" si="2"/>
-        <v>4.5717768972874122</v>
-      </c>
-      <c r="F24" s="38">
+        <v>2</v>
+      </c>
+      <c r="G24" s="39">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="G24" s="39">
-        <f t="shared" si="0"/>
         <v>32.002438281011884</v>
       </c>
       <c r="H24" s="40"/>
@@ -3047,19 +3047,19 @@
         <v>0.5</v>
       </c>
       <c r="D25" s="38">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E25" s="38">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="E25" s="38">
+        <v>4.5717768972874122</v>
+      </c>
+      <c r="F25" s="38">
         <f t="shared" si="2"/>
-        <v>4.5717768972874122</v>
-      </c>
-      <c r="F25" s="38">
+        <v>2</v>
+      </c>
+      <c r="G25" s="39">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="G25" s="39">
-        <f t="shared" si="0"/>
         <v>32.002438281011884</v>
       </c>
       <c r="H25" s="40"/>
@@ -3090,19 +3090,19 @@
         <v>0.5</v>
       </c>
       <c r="D26" s="38">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E26" s="38">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="E26" s="38">
+        <v>5.3337397135019806</v>
+      </c>
+      <c r="F26" s="38">
         <f t="shared" si="2"/>
-        <v>5.3337397135019806</v>
-      </c>
-      <c r="F26" s="38">
+        <v>2</v>
+      </c>
+      <c r="G26" s="39">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="G26" s="39">
-        <f t="shared" si="0"/>
         <v>37.336177994513861</v>
       </c>
       <c r="H26" s="40"/>
@@ -3133,19 +3133,19 @@
         <v>0.5</v>
       </c>
       <c r="D27" s="38">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E27" s="38">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="E27" s="38">
+        <v>6.0957025297165499</v>
+      </c>
+      <c r="F27" s="38">
         <f t="shared" si="2"/>
-        <v>6.0957025297165499</v>
-      </c>
-      <c r="F27" s="38">
+        <v>2</v>
+      </c>
+      <c r="G27" s="39">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="G27" s="39">
-        <f t="shared" si="0"/>
         <v>42.669917708015852</v>
       </c>
       <c r="H27" s="40"/>
@@ -3176,19 +3176,19 @@
         <v>0.5</v>
       </c>
       <c r="D28" s="38">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E28" s="38">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="E28" s="38">
+        <v>5.3337397135019806</v>
+      </c>
+      <c r="F28" s="38">
         <f t="shared" si="2"/>
-        <v>5.3337397135019806</v>
-      </c>
-      <c r="F28" s="38">
+        <v>2</v>
+      </c>
+      <c r="G28" s="39">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="G28" s="39">
-        <f t="shared" si="0"/>
         <v>37.336177994513861</v>
       </c>
       <c r="H28" s="40"/>
@@ -3219,19 +3219,19 @@
         <v>0.5</v>
       </c>
       <c r="D29" s="38">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E29" s="38">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="E29" s="38">
+        <v>4.5717768972874122</v>
+      </c>
+      <c r="F29" s="38">
         <f t="shared" si="2"/>
-        <v>4.5717768972874122</v>
-      </c>
-      <c r="F29" s="38">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G29" s="39">
         <f t="shared" si="3"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="G29" s="39">
-        <f t="shared" si="0"/>
         <v>18.401402011581833</v>
       </c>
       <c r="H29" s="40"/>
@@ -3262,19 +3262,19 @@
         <v>0.5</v>
       </c>
       <c r="D30" s="38">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E30" s="38">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="E30" s="38">
+        <v>4.5717768972874122</v>
+      </c>
+      <c r="F30" s="38">
         <f t="shared" si="2"/>
-        <v>4.5717768972874122</v>
-      </c>
-      <c r="F30" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="G30" s="39">
         <f t="shared" si="3"/>
-        <v>0.3</v>
-      </c>
-      <c r="G30" s="39">
-        <f t="shared" si="0"/>
         <v>4.800365742151782</v>
       </c>
       <c r="H30" s="40"/>
@@ -3317,7 +3317,7 @@
         <v>0.15</v>
       </c>
       <c r="G31" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>11.025</v>
       </c>
       <c r="H31" s="40"/>
@@ -3476,11 +3476,11 @@
       <c r="B39" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="74">
+      <c r="C39" s="68">
         <f>J37</f>
         <v>45495.768891083135</v>
       </c>
-      <c r="D39" s="74"/>
+      <c r="D39" s="68"/>
       <c r="E39" s="51"/>
       <c r="F39" s="50"/>
       <c r="G39" s="51"/>
@@ -3494,10 +3494,10 @@
       <c r="B40" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="77">
+      <c r="C40" s="71">
         <v>40000</v>
       </c>
-      <c r="D40" s="77"/>
+      <c r="D40" s="71"/>
       <c r="E40" s="67"/>
       <c r="F40" s="48"/>
       <c r="G40" s="47"/>
@@ -3511,11 +3511,11 @@
       <c r="B41" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="78">
+      <c r="C41" s="72">
         <f>C40-C43-C44</f>
         <v>38000</v>
       </c>
-      <c r="D41" s="78"/>
+      <c r="D41" s="72"/>
       <c r="E41" s="39">
         <f>C41/C39*100</f>
         <v>83.524250553874566</v>
@@ -3532,11 +3532,11 @@
       <c r="B42" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="74">
+      <c r="C42" s="68">
         <f>C39-C41</f>
         <v>7495.7688910831348</v>
       </c>
-      <c r="D42" s="74"/>
+      <c r="D42" s="68"/>
       <c r="E42" s="39">
         <f>100-E41</f>
         <v>16.475749446125434</v>
@@ -3553,11 +3553,11 @@
       <c r="B43" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="74">
+      <c r="C43" s="68">
         <f>C40*0.03</f>
         <v>1200</v>
       </c>
-      <c r="D43" s="74"/>
+      <c r="D43" s="68"/>
       <c r="E43" s="39">
         <v>3</v>
       </c>
@@ -3573,11 +3573,11 @@
       <c r="B44" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="74">
+      <c r="C44" s="68">
         <f>C40*0.02</f>
         <v>800</v>
       </c>
-      <c r="D44" s="74"/>
+      <c r="D44" s="68"/>
       <c r="E44" s="39">
         <v>2</v>
       </c>
@@ -3652,6 +3652,13 @@
     <row r="94" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="A7:F7"/>
@@ -3660,13 +3667,6 @@
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C42:D42"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
